--- a/console/Big-Data-Infrastructure-Services/使用向导-文字性描述.xlsx
+++ b/console/Big-Data-Infrastructure-Services/使用向导-文字性描述.xlsx
@@ -5,21 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2018.8\8.23\console_Output(4)-更新--先交三个文件-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZM\2018年\8月\23号  分稿子\SN229-LF0028-180823-console_Output(4)-更新-Z导图\SN229-LF0028-180823-console_Output(4)-京东-需修改周一中午12点返回-LHZ部分-需重排\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="2565" windowWidth="27300" windowHeight="16440"/>
+    <workbookView xWindow="3540" yWindow="2565" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+  <si>
+    <t>Welcome to Using Wizard! Download the product manual
+The Using Wizard introduces the use flow and typical scenario of the big data product for the Big Data Infrastructure Services</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Data synchronization among different data sources;
 Periodic task scheduling;
@@ -51,34 +56,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Using Wizard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download the product manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Factory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Streaming Data Bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Computing Service:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stream Computing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>JMR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Using Wizard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product Map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data Factory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Streaming Data Bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stream Computing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JMR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Customer Scenario</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,6 +101,10 @@
   </si>
   <si>
     <t xml:space="preserve">Real-time operation data analysis </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Data Computing Service, Streaming Data Bus, Stream Computing Product for filing and analysis for the real-time business data, in order to realize second-level response, and make data visualization screen or BI Report in the business state.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -131,6 +144,19 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>产品地图</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>使用场景</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,7 +170,27 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>产品地图</t>
+      <t>欢迎来到使用向导！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下载产品手册
+使用向导针对大数据基础服务产品，对大数据产品的使用流程与典型场景进行介绍</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -592,6 +638,23 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>流数据总线</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>liu shu ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>流计算</t>
     </r>
     <rPh sb="0" eb="3">
@@ -721,63 +784,6 @@
       </rPr>
       <t>;</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use Data Computing Service, Streaming Data Bus, and Stream Computing Product for filing and analysis for the real-time business data, in order to realize second-level response, and make data visualization screen or BI Report in the business state.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Download the Product Manual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流数据总线</t>
-    <rPh sb="0" eb="3">
-      <t>liu shu ju</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>欢迎来到使用向导！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下载产品手册
-使用向导针对大数据基础服务产品，对大数据产品的使用流程与典型场景进行介绍</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome to Using Wizard! Download the Product Manual
-The Using Wizard introduces the use flow and typical scenario of the big data product for the Big Data Infrastructure Services</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data Computing Service</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -804,6 +810,25 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -822,25 +847,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -869,16 +875,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -941,7 +947,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -993,7 +999,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1195,176 +1201,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11" style="1"/>
-    <col min="3" max="4" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42" style="1" customWidth="1"/>
-    <col min="6" max="6" width="60.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31" style="1" customWidth="1"/>
-    <col min="9" max="10" width="32.875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="27" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11" style="1"/>
+    <col min="2" max="2" width="11" style="4"/>
+    <col min="3" max="3" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="84.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="31" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31" style="4" customWidth="1"/>
+    <col min="9" max="9" width="32.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="32.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="27" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="45">
+    <row r="1" spans="1:12" s="1" customFormat="1"/>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="45">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1"/>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="75">
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="L4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="90">
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="60">
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>39</v>
+      <c r="H6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="75">
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
+    <row r="7" spans="1:12" s="1" customFormat="1"/>
+    <row r="8" spans="1:12" s="1" customFormat="1"/>
+    <row r="9" spans="1:12" s="1" customFormat="1"/>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="135">
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="120">
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>1</v>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="90">
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1" t="s">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="150">
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>3</v>
+      <c r="H12" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="60">
-      <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="135">
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1" t="s">
+    <row r="13" spans="1:12" s="1" customFormat="1"/>
+    <row r="14" spans="1:12" s="1" customFormat="1"/>
+    <row r="15" spans="1:12" s="1" customFormat="1">
+      <c r="E15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="120">
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="150">
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="E15" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>